--- a/backend/DATA EXPORT.xlsx
+++ b/backend/DATA EXPORT.xlsx
@@ -417,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -437,7 +437,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="str">
-        <v>BULAN undefined</v>
+        <v>BULAN 2022-12-02</v>
       </c>
     </row>
     <row r="4">
@@ -458,6 +458,66 @@
       </c>
       <c r="F4" s="3" t="str">
         <v>Tempat Pelaksanaan</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="str">
+        <v>festival 2</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <v>ormawa 2</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <v>RP. 10.000.000</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <v>budi</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <v>2022-12-30</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <v>lapangan</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="str">
+        <v>festival rajawali</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <v>ormawa 2</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <v>RP. 10.000.000</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <v>budi</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <v>2022-12-30</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <v>lapangan</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="str">
+        <v>Festival budaya</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <v>UKM Budaya</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <v>RP. 3.000.000</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <v>Budi</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <v>2023-01-07</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <v>adasdasd</v>
       </c>
     </row>
   </sheetData>
@@ -466,7 +526,7 @@
     <mergeCell ref="A2:F2"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/DATA EXPORT.xlsx
+++ b/backend/DATA EXPORT.xlsx
@@ -417,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -437,7 +437,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="str">
-        <v>BULAN 2022-12-02</v>
+        <v>DARI TANGGAL 2023-01-01 SAMPAI 2023-01-31</v>
       </c>
     </row>
     <row r="4">
@@ -462,61 +462,21 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
-        <v>festival 2</v>
+        <v>Festival budaya</v>
       </c>
       <c r="B5" s="2" t="str">
-        <v>ormawa 2</v>
+        <v>UKM Budaya</v>
       </c>
       <c r="C5" s="2" t="str">
-        <v>RP. 10.000.000</v>
+        <v>RP. 3.000.000</v>
       </c>
       <c r="D5" s="2" t="str">
-        <v>budi</v>
+        <v>Budi</v>
       </c>
       <c r="E5" s="2" t="str">
-        <v>2022-12-30</v>
+        <v>2023-01-07</v>
       </c>
       <c r="F5" s="2" t="str">
-        <v>lapangan</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="str">
-        <v>festival rajawali</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <v>ormawa 2</v>
-      </c>
-      <c r="C6" s="2" t="str">
-        <v>RP. 10.000.000</v>
-      </c>
-      <c r="D6" s="2" t="str">
-        <v>budi</v>
-      </c>
-      <c r="E6" s="2" t="str">
-        <v>2022-12-30</v>
-      </c>
-      <c r="F6" s="2" t="str">
-        <v>lapangan</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="str">
-        <v>Festival budaya</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <v>UKM Budaya</v>
-      </c>
-      <c r="C7" s="2" t="str">
-        <v>RP. 3.000.000</v>
-      </c>
-      <c r="D7" s="2" t="str">
-        <v>Budi</v>
-      </c>
-      <c r="E7" s="2" t="str">
-        <v>2023-01-07</v>
-      </c>
-      <c r="F7" s="2" t="str">
         <v>adasdasd</v>
       </c>
     </row>
@@ -526,7 +486,7 @@
     <mergeCell ref="A2:F2"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
   </ignoredErrors>
 </worksheet>
 </file>